--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_11_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_11_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2669887.667442019</v>
+        <v>2665635.187815394</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283182</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>342.8444561049854</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.9075077423441</v>
+        <v>110.4999553575869</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>156.6862937548844</v>
+        <v>156.6862937548843</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>62.2260157260727</v>
+        <v>62.22601572607265</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>177.2262711387725</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.9882312337392</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2340345260132</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -758,7 +758,7 @@
         <v>105.0256931046871</v>
       </c>
       <c r="I3" t="n">
-        <v>63.69429571031461</v>
+        <v>63.69429571031459</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>53.80849853870449</v>
+        <v>53.80849853870446</v>
       </c>
       <c r="S3" t="n">
         <v>157.8170057799448</v>
       </c>
       <c r="T3" t="n">
-        <v>197.1557544486215</v>
+        <v>50.2738280351771</v>
       </c>
       <c r="U3" t="n">
         <v>225.8922693348453</v>
@@ -800,7 +800,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>104.8130567474746</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -879,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>108.4284359095509</v>
       </c>
       <c r="X4" t="n">
-        <v>56.39907029376708</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H5" t="n">
-        <v>315.0408840752156</v>
+        <v>181.949553961338</v>
       </c>
       <c r="I5" t="n">
-        <v>93.80512046765524</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -986,7 +986,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>74.52922194059501</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.0669836643703</v>
@@ -995,7 +995,7 @@
         <v>99.90681807664345</v>
       </c>
       <c r="I6" t="n">
-        <v>45.44580843958667</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>20.90078060183509</v>
       </c>
       <c r="S6" t="n">
-        <v>147.9721212459916</v>
+        <v>122.8779392327895</v>
       </c>
       <c r="T6" t="n">
         <v>195.0194028815133</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18.14501477667483</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1104,19 +1104,19 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>73.21286800868195</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1138,16 +1138,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>103.5164680384151</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>209.8685059222798</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>125.1090476301064</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1299,19 +1299,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>14.3886541268207</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1381,10 +1381,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417103</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.803338518789</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1423,10 +1423,10 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>95.12712756824212</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>93.07916359105459</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881311</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>148.0280580960837</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>71.99884436925828</v>
       </c>
     </row>
     <row r="17">
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2010,10 +2010,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>2.268486125805721</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712602</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634834</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>123.9815576456792</v>
       </c>
       <c r="E22" t="n">
-        <v>1.799772605716619</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444139</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>99.39152647956452</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>30.85302310518073</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>106.3048907942291</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>143.2091541404073</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444139</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D34" t="n">
-        <v>76.17049831699812</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>42.71572132711282</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3553,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428212</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="F43" t="n">
-        <v>80.88538973874938</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3957,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>369.731100678468</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="45">
@@ -4137,16 +4137,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>32.27552175740365</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1770.530815989726</v>
+        <v>731.9627568361864</v>
       </c>
       <c r="C2" t="n">
-        <v>1770.530815989726</v>
+        <v>731.9627568361864</v>
       </c>
       <c r="D2" t="n">
-        <v>1424.223284570549</v>
+        <v>731.9627568361864</v>
       </c>
       <c r="E2" t="n">
-        <v>1038.435031972305</v>
+        <v>731.9627568361864</v>
       </c>
       <c r="F2" t="n">
-        <v>627.4491271826973</v>
+        <v>320.9768520465788</v>
       </c>
       <c r="G2" t="n">
         <v>209.3607355237638</v>
@@ -4327,55 +4327,55 @@
         <v>209.3607355237638</v>
       </c>
       <c r="I2" t="n">
-        <v>51.09175193297152</v>
+        <v>51.09175193297154</v>
       </c>
       <c r="J2" t="n">
         <v>156.4961545710335</v>
       </c>
       <c r="K2" t="n">
-        <v>435.214835100501</v>
+        <v>435.2148351005011</v>
       </c>
       <c r="L2" t="n">
-        <v>833.2666318311641</v>
+        <v>833.2666318311643</v>
       </c>
       <c r="M2" t="n">
-        <v>1292.782497537224</v>
+        <v>1292.782497537225</v>
       </c>
       <c r="N2" t="n">
-        <v>1745.101812813642</v>
+        <v>1745.101812813643</v>
       </c>
       <c r="O2" t="n">
-        <v>2127.026478132811</v>
+        <v>2127.026478132812</v>
       </c>
       <c r="P2" t="n">
-        <v>2415.315960935766</v>
+        <v>2415.315960935767</v>
       </c>
       <c r="Q2" t="n">
-        <v>2554.587596648576</v>
+        <v>2554.587596648577</v>
       </c>
       <c r="R2" t="n">
-        <v>2491.733035309109</v>
+        <v>2491.73303530911</v>
       </c>
       <c r="S2" t="n">
-        <v>2491.733035309109</v>
+        <v>2312.7165998154</v>
       </c>
       <c r="T2" t="n">
-        <v>2491.733035309109</v>
+        <v>2093.536568266169</v>
       </c>
       <c r="U2" t="n">
-        <v>2491.733035309109</v>
+        <v>1839.764816219691</v>
       </c>
       <c r="V2" t="n">
-        <v>2160.670147965538</v>
+        <v>1508.70192887612</v>
       </c>
       <c r="W2" t="n">
-        <v>2160.670147965538</v>
+        <v>1508.70192887612</v>
       </c>
       <c r="X2" t="n">
-        <v>2160.670147965538</v>
+        <v>1508.70192887612</v>
       </c>
       <c r="Y2" t="n">
-        <v>1770.530815989726</v>
+        <v>1118.562596900308</v>
       </c>
     </row>
     <row r="3">
@@ -4406,46 +4406,46 @@
         <v>115.4294243676327</v>
       </c>
       <c r="I3" t="n">
-        <v>51.09175193297152</v>
+        <v>51.09175193297154</v>
       </c>
       <c r="J3" t="n">
-        <v>120.1765123687509</v>
+        <v>51.09175193297154</v>
       </c>
       <c r="K3" t="n">
-        <v>207.7339934539359</v>
+        <v>295.7894542912749</v>
       </c>
       <c r="L3" t="n">
-        <v>598.1646481335559</v>
+        <v>686.2201089708951</v>
       </c>
       <c r="M3" t="n">
-        <v>1105.758028360705</v>
+        <v>1193.813489198044</v>
       </c>
       <c r="N3" t="n">
-        <v>1642.492908358682</v>
+        <v>1730.548369196021</v>
       </c>
       <c r="O3" t="n">
-        <v>2067.084785635554</v>
+        <v>2067.084785635555</v>
       </c>
       <c r="P3" t="n">
-        <v>2390.854132153967</v>
+        <v>2390.854132153968</v>
       </c>
       <c r="Q3" t="n">
-        <v>2554.587596648576</v>
+        <v>2554.587596648577</v>
       </c>
       <c r="R3" t="n">
-        <v>2500.235577922612</v>
+        <v>2500.235577922613</v>
       </c>
       <c r="S3" t="n">
-        <v>2340.824460973173</v>
+        <v>2340.824460973174</v>
       </c>
       <c r="T3" t="n">
-        <v>2141.677234257394</v>
+        <v>2290.042816493197</v>
       </c>
       <c r="U3" t="n">
-        <v>1913.503224828257</v>
+        <v>2061.86880706406</v>
       </c>
       <c r="V3" t="n">
-        <v>1678.351116596514</v>
+        <v>1826.716698832317</v>
       </c>
       <c r="W3" t="n">
         <v>1572.479342104116</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>220.0279348608784</v>
+        <v>349.1214849277004</v>
       </c>
       <c r="C4" t="n">
-        <v>51.09175193297152</v>
+        <v>349.1214849277004</v>
       </c>
       <c r="D4" t="n">
-        <v>51.09175193297152</v>
+        <v>199.0048455153647</v>
       </c>
       <c r="E4" t="n">
-        <v>51.09175193297152</v>
+        <v>51.09175193297154</v>
       </c>
       <c r="F4" t="n">
-        <v>51.09175193297152</v>
+        <v>51.09175193297154</v>
       </c>
       <c r="G4" t="n">
-        <v>51.09175193297152</v>
+        <v>51.09175193297154</v>
       </c>
       <c r="H4" t="n">
-        <v>51.09175193297152</v>
+        <v>51.09175193297154</v>
       </c>
       <c r="I4" t="n">
-        <v>51.09175193297152</v>
+        <v>51.09175193297154</v>
       </c>
       <c r="J4" t="n">
-        <v>51.09175193297152</v>
+        <v>51.09175193297154</v>
       </c>
       <c r="K4" t="n">
         <v>101.0304570771861</v>
       </c>
       <c r="L4" t="n">
-        <v>220.461240970327</v>
+        <v>220.4612409703271</v>
       </c>
       <c r="M4" t="n">
-        <v>356.7733802486096</v>
+        <v>356.7733802486098</v>
       </c>
       <c r="N4" t="n">
-        <v>495.2789379493198</v>
+        <v>495.27893794932</v>
       </c>
       <c r="O4" t="n">
-        <v>607.1949427455639</v>
+        <v>607.1949427455642</v>
       </c>
       <c r="P4" t="n">
-        <v>679.4377367071403</v>
+        <v>679.4377367071405</v>
       </c>
       <c r="Q4" t="n">
-        <v>679.4377367071403</v>
+        <v>679.4377367071405</v>
       </c>
       <c r="R4" t="n">
-        <v>679.4377367071403</v>
+        <v>679.4377367071405</v>
       </c>
       <c r="S4" t="n">
-        <v>679.4377367071403</v>
+        <v>679.4377367071405</v>
       </c>
       <c r="T4" t="n">
-        <v>679.4377367071403</v>
+        <v>679.4377367071405</v>
       </c>
       <c r="U4" t="n">
-        <v>679.4377367071403</v>
+        <v>679.4377367071405</v>
       </c>
       <c r="V4" t="n">
-        <v>679.4377367071403</v>
+        <v>679.4377367071405</v>
       </c>
       <c r="W4" t="n">
-        <v>679.4377367071403</v>
+        <v>569.9140640712305</v>
       </c>
       <c r="X4" t="n">
-        <v>622.4689788346483</v>
+        <v>569.9140640712305</v>
       </c>
       <c r="Y4" t="n">
-        <v>401.6763996911181</v>
+        <v>349.1214849277004</v>
       </c>
     </row>
     <row r="5">
@@ -4543,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2019.524450832861</v>
+        <v>1817.858670903615</v>
       </c>
       <c r="C5" t="n">
-        <v>1650.56193389245</v>
+        <v>1448.896153963203</v>
       </c>
       <c r="D5" t="n">
-        <v>1292.296235285699</v>
+        <v>1448.896153963203</v>
       </c>
       <c r="E5" t="n">
-        <v>1292.296235285699</v>
+        <v>1063.107901364959</v>
       </c>
       <c r="F5" t="n">
-        <v>881.3103304960916</v>
+        <v>652.1219965753514</v>
       </c>
       <c r="G5" t="n">
-        <v>464.2225487325191</v>
+        <v>235.0342148117789</v>
       </c>
       <c r="H5" t="n">
-        <v>145.9994335050286</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>239.8866855817394</v>
+        <v>72.4810365613864</v>
       </c>
       <c r="K5" t="n">
-        <v>322.4498401563318</v>
+        <v>155.0441911359788</v>
       </c>
       <c r="L5" t="n">
-        <v>875.263098402531</v>
+        <v>610.4341993187981</v>
       </c>
       <c r="M5" t="n">
-        <v>1506.980909385843</v>
+        <v>1242.15201030211</v>
       </c>
       <c r="N5" t="n">
-        <v>2036.260017058768</v>
+        <v>1869.459678361956</v>
       </c>
       <c r="O5" t="n">
-        <v>2206.429042375727</v>
+        <v>2416.620883129034</v>
       </c>
       <c r="P5" t="n">
-        <v>2317.163367625254</v>
+        <v>2527.35520837856</v>
       </c>
       <c r="Q5" t="n">
         <v>2562.339328400155</v>
@@ -4597,22 +4597,22 @@
         <v>2406.124290896983</v>
       </c>
       <c r="T5" t="n">
-        <v>2406.124290896983</v>
+        <v>2191.324429164695</v>
       </c>
       <c r="U5" t="n">
-        <v>2406.124290896983</v>
+        <v>2191.324429164695</v>
       </c>
       <c r="V5" t="n">
-        <v>2406.124290896983</v>
+        <v>2191.324429164695</v>
       </c>
       <c r="W5" t="n">
-        <v>2406.124290896983</v>
+        <v>2191.324429164695</v>
       </c>
       <c r="X5" t="n">
-        <v>2406.124290896983</v>
+        <v>1817.858670903615</v>
       </c>
       <c r="Y5" t="n">
-        <v>2406.124290896983</v>
+        <v>1817.858670903615</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>893.4159553857312</v>
+        <v>918.7636139849254</v>
       </c>
       <c r="C6" t="n">
-        <v>718.9629261046042</v>
+        <v>744.3105847037984</v>
       </c>
       <c r="D6" t="n">
-        <v>570.0285164433529</v>
+        <v>595.3761750425472</v>
       </c>
       <c r="E6" t="n">
-        <v>410.7910614378974</v>
+        <v>436.1387200370916</v>
       </c>
       <c r="F6" t="n">
-        <v>335.5090190736601</v>
+        <v>289.6041620639766</v>
       </c>
       <c r="G6" t="n">
-        <v>198.067621432882</v>
+        <v>152.1627644231985</v>
       </c>
       <c r="H6" t="n">
-        <v>97.15164357768661</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>51.2467865680031</v>
+        <v>169.9060384248988</v>
       </c>
       <c r="K6" t="n">
-        <v>118.8546062313601</v>
+        <v>499.3344427307086</v>
       </c>
       <c r="L6" t="n">
-        <v>623.2161460974787</v>
+        <v>636.5640407464026</v>
       </c>
       <c r="M6" t="n">
-        <v>1257.395129876517</v>
+        <v>1270.743024525441</v>
       </c>
       <c r="N6" t="n">
-        <v>1456.051871529182</v>
+        <v>1748.14579119009</v>
       </c>
       <c r="O6" t="n">
         <v>1907.658103858851</v>
       </c>
       <c r="P6" t="n">
-        <v>2331.625872339687</v>
+        <v>2331.625872339688</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4673,25 +4673,25 @@
         <v>2541.227428802342</v>
       </c>
       <c r="S6" t="n">
-        <v>2391.760639664977</v>
+        <v>2417.108298264171</v>
       </c>
       <c r="T6" t="n">
-        <v>2194.771343825064</v>
+        <v>2220.119002424259</v>
       </c>
       <c r="U6" t="n">
-        <v>1966.63255633623</v>
+        <v>1991.980214935424</v>
       </c>
       <c r="V6" t="n">
-        <v>1731.480448104488</v>
+        <v>1756.828106703682</v>
       </c>
       <c r="W6" t="n">
-        <v>1477.243091376286</v>
+        <v>1502.59074997548</v>
       </c>
       <c r="X6" t="n">
-        <v>1269.391591170753</v>
+        <v>1294.739249769947</v>
       </c>
       <c r="Y6" t="n">
-        <v>1061.631292405799</v>
+        <v>1086.978951004993</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>69.12137432736571</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C7" t="n">
-        <v>69.12137432736571</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D7" t="n">
-        <v>69.12137432736571</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E7" t="n">
-        <v>69.12137432736571</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F7" t="n">
-        <v>69.12137432736571</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>69.12137432736571</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>69.12137432736571</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>69.12137432736571</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="K7" t="n">
         <v>152.2947161636129</v>
@@ -4752,25 +4752,25 @@
         <v>920.7035067467505</v>
       </c>
       <c r="S7" t="n">
-        <v>920.7035067467505</v>
+        <v>846.7511148187889</v>
       </c>
       <c r="T7" t="n">
-        <v>920.7035067467505</v>
+        <v>846.7511148187889</v>
       </c>
       <c r="U7" t="n">
-        <v>631.5513303244302</v>
+        <v>846.7511148187889</v>
       </c>
       <c r="V7" t="n">
-        <v>376.8668421185433</v>
+        <v>846.7511148187889</v>
       </c>
       <c r="W7" t="n">
-        <v>87.44967208158272</v>
+        <v>846.7511148187889</v>
       </c>
       <c r="X7" t="n">
-        <v>87.44967208158272</v>
+        <v>846.7511148187889</v>
       </c>
       <c r="Y7" t="n">
-        <v>87.44967208158272</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1632.688211171978</v>
+        <v>1182.87310169792</v>
       </c>
       <c r="C8" t="n">
-        <v>1263.725694231566</v>
+        <v>813.9105847575083</v>
       </c>
       <c r="D8" t="n">
-        <v>1263.725694231566</v>
+        <v>455.6448861507579</v>
       </c>
       <c r="E8" t="n">
-        <v>877.9374416333219</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="F8" t="n">
-        <v>466.9515368437143</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2333.078031998934</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2333.078031998934</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056584</v>
+        <v>2333.078031998934</v>
       </c>
       <c r="W8" t="n">
-        <v>2231.276441056584</v>
+        <v>2333.078031998934</v>
       </c>
       <c r="X8" t="n">
-        <v>2231.276441056584</v>
+        <v>1959.612273737853</v>
       </c>
       <c r="Y8" t="n">
-        <v>2019.2880512361</v>
+        <v>1569.472941762042</v>
       </c>
     </row>
     <row r="9">
@@ -4874,34 +4874,34 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>590.2049751143501</v>
       </c>
       <c r="L9" t="n">
-        <v>932.4978103100997</v>
+        <v>884.9085321458217</v>
       </c>
       <c r="M9" t="n">
-        <v>1295.75982926932</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N9" t="n">
-        <v>1683.044957866265</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O9" t="n">
-        <v>2175.502629736639</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568936</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q9" t="n">
         <v>2538.001278676482</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>940.7932119894607</v>
+        <v>517.189556406156</v>
       </c>
       <c r="C10" t="n">
-        <v>771.8570290615538</v>
+        <v>348.2533734782492</v>
       </c>
       <c r="D10" t="n">
-        <v>621.7403896492181</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E10" t="n">
-        <v>473.8272960668249</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>473.8272960668249</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4986,28 +4986,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1244.744376093917</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1244.744376093917</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W10" t="n">
-        <v>955.3272060569564</v>
+        <v>1092.344461831649</v>
       </c>
       <c r="X10" t="n">
-        <v>955.3272060569564</v>
+        <v>864.354910933632</v>
       </c>
       <c r="Y10" t="n">
-        <v>940.7932119894607</v>
+        <v>643.5623317901019</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168636</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111716</v>
@@ -5053,40 +5053,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>352.5519571452613</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452613</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876693</v>
+        <v>801.6918836311994</v>
       </c>
       <c r="C13" t="n">
-        <v>580.8993044876693</v>
+        <v>632.7557007032925</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>482.6390612909568</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>334.7259677085636</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>187.8360202106533</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5244,7 +5244,7 @@
         <v>983.3403484614391</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.547769317909</v>
+        <v>983.3403484614391</v>
       </c>
     </row>
     <row r="14">
@@ -5269,61 +5269,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192608</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111694</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468472</v>
+        <v>577.3880777468474</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>577.3880777468474</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1174.7665653734</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1802.364528928007</v>
       </c>
       <c r="O15" t="n">
-        <v>2297.690135143765</v>
+        <v>2354.274259167294</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708871</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429803</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5442,46 +5442,46 @@
         <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W16" t="n">
-        <v>1284.178074642674</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X16" t="n">
-        <v>1056.188523744657</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.3959446011269</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,22 +5503,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192608</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075814</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332388</v>
@@ -5527,16 +5527,16 @@
         <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852259</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398594</v>
@@ -5594,22 +5594,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K18" t="n">
-        <v>409.1360811687895</v>
+        <v>577.3880777468474</v>
       </c>
       <c r="L18" t="n">
-        <v>904.4616873845483</v>
+        <v>776.1751066403282</v>
       </c>
       <c r="M18" t="n">
-        <v>1501.8401750111</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>2129.438138565707</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>802.9288273958739</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>633.992644467967</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D19" t="n">
-        <v>633.992644467967</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
         <v>484.8112968429802</v>
@@ -5667,7 +5667,7 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797189</v>
@@ -5679,46 +5679,46 @@
         <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510509</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V19" t="n">
-        <v>1722.776592304622</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.359422267661</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.369871369644</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.5772922261136</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,64 +5740,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075816</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M20" t="n">
         <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852259</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398597</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492582</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474787</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466577</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123006</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852892</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591812</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866616</v>
       </c>
     </row>
     <row r="21">
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273915</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>245.230692780394</v>
       </c>
       <c r="K21" t="n">
-        <v>251.5626541092265</v>
+        <v>579.1554649516147</v>
       </c>
       <c r="L21" t="n">
-        <v>746.8882603249853</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M21" t="n">
-        <v>1344.266747951537</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348534</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,61 +5886,61 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400726</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400726</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E22" t="n">
-        <v>343.0994656851783</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U22" t="n">
         <v>1688.385853854707</v>
@@ -5949,13 +5949,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703123</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5977,52 +5977,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075816</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>680.0291294438171</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3006.417838136244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>2837.481655208337</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>2687.365015796001</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>2586.969534503512</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>2586.969534503512</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>2419.773435218392</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4690.833152398594</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4507.978318053499</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4288.37685307644</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>3999.301626420638</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>3744.617138214751</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>3455.199968177791</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>3227.210417279774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>3006.417838136244</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6223,22 +6223,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6302,25 +6302,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>962.6357307816191</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>793.6995478537123</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>643.5829084413765</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>495.6698148589834</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>348.779867361073</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1144.284195611859</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.284195611859</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,16 +6475,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6542,19 +6542,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263526</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356194</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>424.9938751277886</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>424.9938751277886</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2197.062545487568</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1942.378057281681</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1652.96088724472</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1424.971336346703</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,31 +6688,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,25 +6776,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1670.092171589158</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>801.6918836311994</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>632.7557007032925</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>983.3403484614391</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6931,16 +6931,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6955,31 +6955,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1540.888753373306</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1540.888753373306</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>513.8536007400717</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>470.7064074803617</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>322.7933138979686</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
         <v>1948.813509611463</v>
@@ -7168,58 +7168,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7429,31 +7429,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
@@ -7496,22 +7496,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>680.0291294438171</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>951.3929232910542</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>782.4567403631473</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>632.3401009508116</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>484.4270073684185</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1871.240688199802</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1581.823518162841</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1353.833967264824</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1133.041388121294</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7636,61 +7636,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797184</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111706</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7712,22 +7712,22 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K45" t="n">
         <v>577.3880777468471</v>
@@ -7739,10 +7739,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1670.092171589158</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429802</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429802</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F46" t="n">
         <v>484.8112968429802</v>
@@ -7800,58 +7800,58 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>56.30844904164178</v>
       </c>
       <c r="K3" t="n">
-        <v>105.7377407771056</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8072,7 +8072,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>304.917409340024</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>319.2538912541072</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>338.3281765464069</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8294,22 +8294,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>459.2743913378117</v>
+        <v>459.2743913378118</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>281.5616414262471</v>
       </c>
       <c r="O6" t="n">
-        <v>295.0443632938466</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>168.7434581780647</v>
       </c>
       <c r="L9" t="n">
-        <v>342.9044714621886</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8546,13 +8546,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>162.0073097921339</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>-1.220359458563496e-12</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>-2.138442587197961e-12</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9877,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>-3.371181585577118e-13</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>53.48834544997024</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>72.44497470121425</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>146.5858089828365</v>
       </c>
     </row>
     <row r="17">
@@ -23898,10 +23898,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>144.1654765207635</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>72.1196935303844</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>24.63391537253318</v>
       </c>
       <c r="E22" t="n">
-        <v>144.6341900408526</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>47.04243616700465</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>134.6711151870881</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,16 +24843,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>59.21924749803978</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24891,10 +24891,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>75.37549921168744</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D34" t="n">
-        <v>72.44497470121424</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>105.8997516910995</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194174</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="F43" t="n">
-        <v>64.53565828418186</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26025,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>114.1584408891655</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>773498.6533206415</v>
+        <v>773498.6533206413</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>773498.6533206415</v>
+        <v>773498.6533206413</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>773498.6533206415</v>
+        <v>773498.6533206413</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>773498.6533206413</v>
+        <v>773498.6533206414</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>773498.6533206414</v>
+        <v>773498.6533206413</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>773498.6533206414</v>
+        <v>773498.6533206415</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914263</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="C2" t="n">
         <v>656833.4158914264</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.415891427</v>
+        <v>656833.4158914271</v>
       </c>
       <c r="E2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="F2" t="n">
+        <v>645717.2797520052</v>
+      </c>
+      <c r="G2" t="n">
         <v>645717.2797520051</v>
       </c>
-      <c r="F2" t="n">
-        <v>645717.2797520054</v>
-      </c>
-      <c r="G2" t="n">
-        <v>645717.279752005</v>
-      </c>
       <c r="H2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="I2" t="n">
+        <v>645717.2797520047</v>
+      </c>
+      <c r="J2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="K2" t="n">
         <v>645717.2797520052</v>
-      </c>
-      <c r="I2" t="n">
-        <v>645717.2797520051</v>
-      </c>
-      <c r="J2" t="n">
-        <v>645717.2797520051</v>
-      </c>
-      <c r="K2" t="n">
-        <v>645717.2797520054</v>
       </c>
       <c r="L2" t="n">
         <v>645717.2797520051</v>
       </c>
       <c r="M2" t="n">
-        <v>645717.2797520054</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="N2" t="n">
-        <v>645717.2797520052</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="O2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="P2" t="n">
-        <v>645717.2797520054</v>
+        <v>645717.2797520049</v>
       </c>
     </row>
     <row r="3">
@@ -26365,40 +26365,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548460.0746161963</v>
+        <v>548460.0746161967</v>
       </c>
       <c r="C3" t="n">
-        <v>225009.9816299271</v>
+        <v>225009.9816299269</v>
       </c>
       <c r="D3" t="n">
         <v>291685.0095230265</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245462</v>
+        <v>507485.4416245461</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.594527697714511e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.84042391992989e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167098.1292843799</v>
+        <v>167098.1292843801</v>
       </c>
       <c r="K3" t="n">
-        <v>498.7619243601235</v>
+        <v>498.761924360065</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289269</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>5.148837678054155e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>247452.3619198065</v>
+        <v>247452.3619198064</v>
       </c>
       <c r="C4" t="n">
         <v>198312.6346601523</v>
@@ -26426,22 +26426,22 @@
         <v>133113.8635467444</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.36846171972</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719709</v>
+        <v>7507.368461719614</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.368461719626</v>
+        <v>7507.368461719613</v>
       </c>
       <c r="H4" t="n">
+        <v>7507.368461719538</v>
+      </c>
+      <c r="I4" t="n">
         <v>7507.368461719667</v>
       </c>
-      <c r="I4" t="n">
-        <v>7507.36846171961</v>
-      </c>
       <c r="J4" t="n">
-        <v>7507.368461719634</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="K4" t="n">
         <v>7507.368461719667</v>
@@ -26450,7 +26450,7 @@
         <v>7507.368461719667</v>
       </c>
       <c r="M4" t="n">
-        <v>7507.368461719642</v>
+        <v>7507.368461719668</v>
       </c>
       <c r="N4" t="n">
         <v>7507.368461719667</v>
@@ -26459,7 +26459,7 @@
         <v>7507.368461719667</v>
       </c>
       <c r="P4" t="n">
-        <v>7507.368461719626</v>
+        <v>7507.368461719749</v>
       </c>
     </row>
     <row r="5">
@@ -26469,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>80023.31371946025</v>
+        <v>80023.31371946028</v>
       </c>
       <c r="C5" t="n">
-        <v>85512.93677905216</v>
+        <v>85512.93677905218</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="I5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-219102.3343640368</v>
+        <v>-219102.3343640367</v>
       </c>
       <c r="C6" t="n">
-        <v>147997.8628222948</v>
+        <v>147997.8628222951</v>
       </c>
       <c r="D6" t="n">
-        <v>139096.7703818114</v>
+        <v>139096.7703818115</v>
       </c>
       <c r="E6" t="n">
-        <v>29601.93984183201</v>
+        <v>29254.5605874751</v>
       </c>
       <c r="F6" t="n">
-        <v>537087.3814663785</v>
+        <v>536740.0022120212</v>
       </c>
       <c r="G6" t="n">
-        <v>537087.3814663782</v>
+        <v>536740.0022120214</v>
       </c>
       <c r="H6" t="n">
-        <v>537087.3814663785</v>
+        <v>536740.002212021</v>
       </c>
       <c r="I6" t="n">
-        <v>537087.3814663785</v>
+        <v>536740.0022120216</v>
       </c>
       <c r="J6" t="n">
-        <v>369989.2521819985</v>
+        <v>369641.8729276411</v>
       </c>
       <c r="K6" t="n">
-        <v>536588.6195420184</v>
+        <v>536241.2402876614</v>
       </c>
       <c r="L6" t="n">
-        <v>537087.3814663783</v>
+        <v>536740.0022120214</v>
       </c>
       <c r="M6" t="n">
-        <v>404480.0877374517</v>
+        <v>404132.7084830945</v>
       </c>
       <c r="N6" t="n">
-        <v>537087.3814663785</v>
+        <v>536740.0022120212</v>
       </c>
       <c r="O6" t="n">
-        <v>537087.381466378</v>
+        <v>536740.0022120212</v>
       </c>
       <c r="P6" t="n">
-        <v>537087.3814663787</v>
+        <v>536740.0022120212</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26727,7 +26727,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>347.0634059817388</v>
+        <v>347.063405981739</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>638.646899162144</v>
+        <v>638.6468991621442</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099649</v>
@@ -26810,7 +26810,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26822,16 +26822,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>-3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26949,7 +26949,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>347.0634059817388</v>
+        <v>347.063405981739</v>
       </c>
       <c r="C3" t="n">
-        <v>246.4126943563263</v>
+        <v>246.4126943563261</v>
       </c>
       <c r="D3" t="n">
         <v>340.588791779474</v>
@@ -26971,7 +26971,7 @@
         <v>433.9106082241349</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>638.646899162144</v>
+        <v>638.6468991621442</v>
       </c>
       <c r="C4" t="n">
-        <v>1.93793293789478</v>
+        <v>1.93793293789463</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996101</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27029,22 +27029,22 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.6468991621437</v>
+        <v>638.6468991621442</v>
       </c>
       <c r="K4" t="n">
-        <v>1.937932937894857</v>
+        <v>1.93793293789463</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996103</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.646899162144</v>
+        <v>638.6468991621442</v>
       </c>
       <c r="K4" t="n">
-        <v>1.93793293789478</v>
+        <v>1.93793293789463</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996101</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27275,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>11.83858551569756</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>303.4075523847573</v>
       </c>
       <c r="H2" t="n">
-        <v>325.1859052051723</v>
+        <v>325.1859052051722</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>177.2262711387725</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.9882312337392</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2340345260132</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27511,7 +27511,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>146.8819264134443</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27520,7 +27520,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>146.881926413445</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27557,10 +27557,10 @@
         <v>156.6627788836668</v>
       </c>
       <c r="I4" t="n">
-        <v>136.6293971077896</v>
+        <v>136.6293971077895</v>
       </c>
       <c r="J4" t="n">
-        <v>49.11144063601733</v>
+        <v>49.11144063601731</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>33.75546894845183</v>
+        <v>33.7554689484518</v>
       </c>
       <c r="R4" t="n">
         <v>149.1528076724862</v>
@@ -27599,10 +27599,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>178.0945624270401</v>
       </c>
       <c r="X4" t="n">
-        <v>169.3105850952701</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>133.0913301138775</v>
       </c>
       <c r="I5" t="n">
-        <v>24.69092042623505</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1547862223006</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27706,7 +27706,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>70.53999045278887</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27715,7 +27715,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,7 +27745,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>25.09418201320203</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>161.6869654052625</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.9207765545704</v>
@@ -27797,7 +27797,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27824,19 +27824,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>205.3658819001186</v>
+        <v>132.1530138914367</v>
       </c>
       <c r="T7" t="n">
         <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27858,16 +27858,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>103.1417169418187</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>176.3694327337738</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>54.72293255183091</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28019,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
@@ -28067,19 +28067,19 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>204.1959992252741</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28101,7 +28101,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1.133261760295336e-12</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28326,7 +28326,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28800,7 +28800,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-2.479503100362809e-12</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29091,7 +29091,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>-8.878873722601852e-13</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -30696,25 +30696,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>1.028473857802275e-12</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
     </row>
     <row r="45">
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.395229772790908</v>
+        <v>1.395229772790909</v>
       </c>
       <c r="H2" t="n">
-        <v>14.28889691059489</v>
+        <v>14.28889691059491</v>
       </c>
       <c r="I2" t="n">
-        <v>53.78959581552155</v>
+        <v>53.78959581552159</v>
       </c>
       <c r="J2" t="n">
-        <v>118.4183829284125</v>
+        <v>118.4183829284126</v>
       </c>
       <c r="K2" t="n">
-        <v>177.4784592106517</v>
+        <v>177.4784592106518</v>
       </c>
       <c r="L2" t="n">
-        <v>220.1777223697015</v>
+        <v>220.1777223697016</v>
       </c>
       <c r="M2" t="n">
-        <v>244.9901398415718</v>
+        <v>244.990139841572</v>
       </c>
       <c r="N2" t="n">
-        <v>248.954336433514</v>
+        <v>248.9543364335142</v>
       </c>
       <c r="O2" t="n">
-        <v>235.0805203803244</v>
+        <v>235.0805203803245</v>
       </c>
       <c r="P2" t="n">
-        <v>200.6357853645488</v>
+        <v>200.6357853645489</v>
       </c>
       <c r="Q2" t="n">
-        <v>150.6691191264743</v>
+        <v>150.6691191264744</v>
       </c>
       <c r="R2" t="n">
-        <v>87.64310221507698</v>
+        <v>87.64310221507704</v>
       </c>
       <c r="S2" t="n">
-        <v>31.79379844747286</v>
+        <v>31.79379844747288</v>
       </c>
       <c r="T2" t="n">
-        <v>6.107618330392205</v>
+        <v>6.107618330392209</v>
       </c>
       <c r="U2" t="n">
         <v>0.1116183818232727</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7465137411682683</v>
+        <v>0.7465137411682687</v>
       </c>
       <c r="H3" t="n">
-        <v>7.209751131809329</v>
+        <v>7.209751131809334</v>
       </c>
       <c r="I3" t="n">
-        <v>25.70233714110047</v>
+        <v>25.70233714110049</v>
       </c>
       <c r="J3" t="n">
-        <v>70.52917762502487</v>
+        <v>70.52917762502491</v>
       </c>
       <c r="K3" t="n">
-        <v>120.5455982832988</v>
+        <v>120.5455982832989</v>
       </c>
       <c r="L3" t="n">
-        <v>162.0884331426979</v>
+        <v>162.088433142698</v>
       </c>
       <c r="M3" t="n">
-        <v>189.1495562600476</v>
+        <v>189.1495562600477</v>
       </c>
       <c r="N3" t="n">
-        <v>194.1557821821804</v>
+        <v>194.1557821821806</v>
       </c>
       <c r="O3" t="n">
-        <v>177.6146092857678</v>
+        <v>177.6146092857679</v>
       </c>
       <c r="P3" t="n">
         <v>142.5513827323863</v>
       </c>
       <c r="Q3" t="n">
-        <v>95.2918242235144</v>
+        <v>95.29182422351445</v>
       </c>
       <c r="R3" t="n">
-        <v>46.34933561393864</v>
+        <v>46.34933561393867</v>
       </c>
       <c r="S3" t="n">
-        <v>13.86616532389304</v>
+        <v>13.86616532389305</v>
       </c>
       <c r="T3" t="n">
-        <v>3.008974246200168</v>
+        <v>3.00897424620017</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04911274612949135</v>
+        <v>0.04911274612949139</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6258520435736272</v>
+        <v>0.6258520435736276</v>
       </c>
       <c r="H4" t="n">
-        <v>5.564393623772799</v>
+        <v>5.564393623772802</v>
       </c>
       <c r="I4" t="n">
-        <v>18.82107781946872</v>
+        <v>18.82107781946873</v>
       </c>
       <c r="J4" t="n">
-        <v>44.24773948065544</v>
+        <v>44.24773948065547</v>
       </c>
       <c r="K4" t="n">
-        <v>72.71262833519049</v>
+        <v>72.71262833519053</v>
       </c>
       <c r="L4" t="n">
-        <v>93.04713018730092</v>
+        <v>93.04713018730098</v>
       </c>
       <c r="M4" t="n">
-        <v>98.10515261218229</v>
+        <v>98.10515261218235</v>
       </c>
       <c r="N4" t="n">
-        <v>95.77243135886249</v>
+        <v>95.77243135886255</v>
       </c>
       <c r="O4" t="n">
-        <v>88.46134157711599</v>
+        <v>88.46134157711604</v>
       </c>
       <c r="P4" t="n">
-        <v>75.69395988821394</v>
+        <v>75.69395988821398</v>
       </c>
       <c r="Q4" t="n">
-        <v>52.40657430324255</v>
+        <v>52.40657430324259</v>
       </c>
       <c r="R4" t="n">
-        <v>28.14058370468327</v>
+        <v>28.14058370468328</v>
       </c>
       <c r="S4" t="n">
-        <v>10.90689425027857</v>
+        <v>10.90689425027858</v>
       </c>
       <c r="T4" t="n">
-        <v>2.674095095269134</v>
+        <v>2.674095095269136</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03413738419492516</v>
+        <v>0.03413738419492518</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31837,16 +31837,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>399.190220890813</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862122</v>
@@ -31855,10 +31855,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P15" t="n">
-        <v>391.925066926462</v>
+        <v>334.769386094614</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,7 +32104,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32162,31 +32162,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U16" t="n">
         <v>0.1345549672467222</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K18" t="n">
-        <v>456.3459017226597</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>339.3493584601578</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,7 +32341,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32399,31 +32399,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U19" t="n">
         <v>0.1345549672467222</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,43 +32542,43 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K21" t="n">
-        <v>297.1808238847171</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643557995</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796262</v>
@@ -32636,31 +32636,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U22" t="n">
         <v>0.1345549672467222</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>393.3904345522222</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,34 +33016,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319848</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>615.0381444378773</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34213,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>242.2322097768135</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34450,22 +34450,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34701,25 +34701,25 @@
         <v>106.4690935738</v>
       </c>
       <c r="K2" t="n">
-        <v>281.5340207368358</v>
+        <v>281.5340207368359</v>
       </c>
       <c r="L2" t="n">
-        <v>402.0725219501647</v>
+        <v>402.0725219501649</v>
       </c>
       <c r="M2" t="n">
-        <v>464.1574401071315</v>
+        <v>464.1574401071317</v>
       </c>
       <c r="N2" t="n">
-        <v>456.8881972489072</v>
+        <v>456.8881972489074</v>
       </c>
       <c r="O2" t="n">
-        <v>385.782490221383</v>
+        <v>385.7824902213831</v>
       </c>
       <c r="P2" t="n">
-        <v>291.2014977807619</v>
+        <v>291.201497780762</v>
       </c>
       <c r="Q2" t="n">
-        <v>140.6784199119295</v>
+        <v>140.6784199119296</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>69.78258629876701</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>88.44190008604545</v>
+        <v>247.1693963215185</v>
       </c>
       <c r="L3" t="n">
-        <v>394.3743986662829</v>
+        <v>394.374398666283</v>
       </c>
       <c r="M3" t="n">
-        <v>512.7205860880292</v>
+        <v>512.7205860880293</v>
       </c>
       <c r="N3" t="n">
-        <v>542.1564444424007</v>
+        <v>542.1564444424008</v>
       </c>
       <c r="O3" t="n">
-        <v>428.8806841180528</v>
+        <v>339.9357741813474</v>
       </c>
       <c r="P3" t="n">
-        <v>327.0397439579932</v>
+        <v>327.0397439579933</v>
       </c>
       <c r="Q3" t="n">
         <v>165.387337873342</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>50.44313650930764</v>
+        <v>50.44313650930768</v>
       </c>
       <c r="L4" t="n">
         <v>120.6371554476171</v>
@@ -34874,7 +34874,7 @@
         <v>113.0464694911557</v>
       </c>
       <c r="P4" t="n">
-        <v>72.97251915310743</v>
+        <v>72.97251915310747</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K5" t="n">
         <v>83.39712583292157</v>
       </c>
       <c r="L5" t="n">
-        <v>558.3972305517163</v>
+        <v>459.9899072553731</v>
       </c>
       <c r="M5" t="n">
         <v>638.0987989730422</v>
       </c>
       <c r="N5" t="n">
-        <v>534.625361285783</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O5" t="n">
-        <v>171.8879043605652</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P5" t="n">
         <v>111.8528537874005</v>
       </c>
       <c r="Q5" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,22 +35014,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K6" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L6" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M6" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N6" t="n">
-        <v>200.663375406732</v>
+        <v>482.2250168329791</v>
       </c>
       <c r="O6" t="n">
-        <v>456.1679114441098</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P6" t="n">
         <v>428.2502711927643</v>
@@ -35251,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>355.3309544215495</v>
       </c>
       <c r="L9" t="n">
-        <v>640.5848321000387</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
         <v>366.9313322820404</v>
@@ -35266,13 +35266,13 @@
         <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>497.4319917882568</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
         <v>24.58388860977091</v>
@@ -35421,7 +35421,7 @@
         <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193524</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
         <v>696.4886512243162</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>261.348781916454</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35503,10 +35503,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396423</v>
+        <v>285.7087110396398</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P15" t="n">
-        <v>257.9506595121318</v>
+        <v>200.7949786802838</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,25 +35804,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q16" t="n">
         <v>120.4022572998984</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902381</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>318.5044627483007</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>200.7949786802836</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,25 +36041,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q19" t="n">
         <v>120.4022572998984</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K21" t="n">
-        <v>159.3393849103582</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113551</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,25 +36278,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K22" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q22" t="n">
         <v>120.4022572998984</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>254.8360547723481</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,22 +36910,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875403</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,19 +37153,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,25 +37390,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>472.904110515859</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,25 +37864,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>103.6778299969394</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,19 +38101,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_11_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_11_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2665635.187815394</v>
+        <v>2667395.71811818</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283191</v>
       </c>
     </row>
     <row r="9">
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>110.4999553575869</v>
+        <v>413.9075077423441</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>156.6862937548843</v>
+        <v>43.33618945332405</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>62.22601572607265</v>
+        <v>62.22601572607235</v>
       </c>
       <c r="S2" t="n">
-        <v>177.2262711387725</v>
+        <v>177.2262711387723</v>
       </c>
       <c r="T2" t="n">
-        <v>216.9882312337392</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2340345260132</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>128.2659482909817</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -758,7 +758,7 @@
         <v>105.0256931046871</v>
       </c>
       <c r="I3" t="n">
-        <v>63.69429571031459</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>53.80849853870446</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>157.8170057799448</v>
+        <v>157.8170057799447</v>
       </c>
       <c r="T3" t="n">
-        <v>50.2738280351771</v>
+        <v>197.1557544486214</v>
       </c>
       <c r="U3" t="n">
         <v>225.8922693348453</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.2714943330124</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>108.4284359095509</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>101.7415949286351</v>
       </c>
     </row>
     <row r="5">
@@ -913,10 +913,10 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H5" t="n">
-        <v>181.949553961338</v>
+        <v>63.45351306744552</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>136.0669836643703</v>
       </c>
       <c r="H6" t="n">
-        <v>99.90681807664345</v>
+        <v>29.36682762385282</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>20.90078060183509</v>
       </c>
       <c r="S6" t="n">
-        <v>122.8779392327895</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T6" t="n">
         <v>195.0194028815133</v>
@@ -1065,7 +1065,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>129.2224443473097</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>73.21286800868195</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>253.7182910475493</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>103.5164680384151</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>125.1090476301064</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1302,10 +1302,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>90.69811547110028</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1533,19 +1533,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>93.07916359105459</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.99884436925828</v>
+        <v>27.31547498186427</v>
       </c>
     </row>
     <row r="17">
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
-        <v>108.9065924712602</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634834</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695709</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2241,10 +2241,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>123.9815576456792</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2253,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>26.1362719570582</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012163</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444139</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2414,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2651,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2772,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2888,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2958,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>106.3048907942291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444139</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3094,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784668</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3125,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>28.75188085812005</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3362,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3426,10 +3426,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>112.0357928422982</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1.799772605711666</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="42">
@@ -3836,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3906,16 +3906,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T44" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678468</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560496</v>
       </c>
     </row>
     <row r="45">
@@ -4073,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4143,19 +4143,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>32.27552175740365</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>55.5207962406039</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>731.9627568361864</v>
+        <v>1282.205675728994</v>
       </c>
       <c r="C2" t="n">
-        <v>731.9627568361864</v>
+        <v>1282.205675728994</v>
       </c>
       <c r="D2" t="n">
-        <v>731.9627568361864</v>
+        <v>923.939977122244</v>
       </c>
       <c r="E2" t="n">
-        <v>731.9627568361864</v>
+        <v>923.939977122244</v>
       </c>
       <c r="F2" t="n">
-        <v>320.9768520465788</v>
+        <v>512.9540723326365</v>
       </c>
       <c r="G2" t="n">
-        <v>209.3607355237638</v>
+        <v>94.86568067370303</v>
       </c>
       <c r="H2" t="n">
-        <v>209.3607355237638</v>
+        <v>94.86568067370303</v>
       </c>
       <c r="I2" t="n">
-        <v>51.09175193297154</v>
+        <v>51.09175193297165</v>
       </c>
       <c r="J2" t="n">
-        <v>156.4961545710335</v>
+        <v>156.4961545710341</v>
       </c>
       <c r="K2" t="n">
-        <v>435.2148351005011</v>
+        <v>435.2148351005026</v>
       </c>
       <c r="L2" t="n">
-        <v>833.2666318311643</v>
+        <v>833.2666318311665</v>
       </c>
       <c r="M2" t="n">
-        <v>1292.782497537225</v>
+        <v>1292.782497537228</v>
       </c>
       <c r="N2" t="n">
-        <v>1745.101812813643</v>
+        <v>1745.101812813647</v>
       </c>
       <c r="O2" t="n">
-        <v>2127.026478132812</v>
+        <v>2127.026478132817</v>
       </c>
       <c r="P2" t="n">
-        <v>2415.315960935767</v>
+        <v>2415.315960935772</v>
       </c>
       <c r="Q2" t="n">
-        <v>2554.587596648577</v>
+        <v>2554.587596648583</v>
       </c>
       <c r="R2" t="n">
-        <v>2491.73303530911</v>
+        <v>2491.733035309116</v>
       </c>
       <c r="S2" t="n">
-        <v>2312.7165998154</v>
+        <v>2312.716599815406</v>
       </c>
       <c r="T2" t="n">
-        <v>2093.536568266169</v>
+        <v>2312.716599815406</v>
       </c>
       <c r="U2" t="n">
-        <v>1839.764816219691</v>
+        <v>2058.944847768928</v>
       </c>
       <c r="V2" t="n">
-        <v>1508.70192887612</v>
+        <v>2058.944847768928</v>
       </c>
       <c r="W2" t="n">
-        <v>1508.70192887612</v>
+        <v>2058.944847768928</v>
       </c>
       <c r="X2" t="n">
-        <v>1508.70192887612</v>
+        <v>2058.944847768928</v>
       </c>
       <c r="Y2" t="n">
-        <v>1118.562596900308</v>
+        <v>1668.805515793116</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.652206113561</v>
+        <v>894.6386426037288</v>
       </c>
       <c r="C3" t="n">
-        <v>814.199176832434</v>
+        <v>720.1856133226019</v>
       </c>
       <c r="D3" t="n">
-        <v>665.2647671711827</v>
+        <v>571.2512036613506</v>
       </c>
       <c r="E3" t="n">
-        <v>506.0273121657272</v>
+        <v>441.689639731066</v>
       </c>
       <c r="F3" t="n">
-        <v>359.4927541926121</v>
+        <v>295.1550817579509</v>
       </c>
       <c r="G3" t="n">
-        <v>221.5159830592359</v>
+        <v>157.1783106245748</v>
       </c>
       <c r="H3" t="n">
-        <v>115.4294243676327</v>
+        <v>51.09175193297165</v>
       </c>
       <c r="I3" t="n">
-        <v>51.09175193297154</v>
+        <v>51.09175193297165</v>
       </c>
       <c r="J3" t="n">
-        <v>51.09175193297154</v>
+        <v>51.09175193297165</v>
       </c>
       <c r="K3" t="n">
-        <v>295.7894542912749</v>
+        <v>207.7339934539391</v>
       </c>
       <c r="L3" t="n">
-        <v>686.2201089708951</v>
+        <v>598.1646481335598</v>
       </c>
       <c r="M3" t="n">
-        <v>1193.813489198044</v>
+        <v>1105.758028360709</v>
       </c>
       <c r="N3" t="n">
-        <v>1730.548369196021</v>
+        <v>1642.492908358687</v>
       </c>
       <c r="O3" t="n">
-        <v>2067.084785635555</v>
+        <v>2067.08478563556</v>
       </c>
       <c r="P3" t="n">
-        <v>2390.854132153968</v>
+        <v>2390.854132153974</v>
       </c>
       <c r="Q3" t="n">
-        <v>2554.587596648577</v>
+        <v>2554.587596648583</v>
       </c>
       <c r="R3" t="n">
-        <v>2500.235577922613</v>
+        <v>2554.587596648583</v>
       </c>
       <c r="S3" t="n">
-        <v>2340.824460973174</v>
+        <v>2395.176479699144</v>
       </c>
       <c r="T3" t="n">
-        <v>2290.042816493197</v>
+        <v>2196.029252983365</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.86880706406</v>
+        <v>1967.855243554228</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.716698832317</v>
+        <v>1732.703135322485</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.479342104116</v>
+        <v>1478.465778594284</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.627841898583</v>
+        <v>1270.614278388751</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.867543133629</v>
+        <v>1062.853979623797</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>349.1214849277004</v>
+        <v>349.1214849277005</v>
       </c>
       <c r="C4" t="n">
-        <v>349.1214849277004</v>
+        <v>349.1214849277005</v>
       </c>
       <c r="D4" t="n">
-        <v>199.0048455153647</v>
+        <v>199.0048455153648</v>
       </c>
       <c r="E4" t="n">
-        <v>51.09175193297154</v>
+        <v>51.09175193297165</v>
       </c>
       <c r="F4" t="n">
-        <v>51.09175193297154</v>
+        <v>51.09175193297165</v>
       </c>
       <c r="G4" t="n">
-        <v>51.09175193297154</v>
+        <v>51.09175193297165</v>
       </c>
       <c r="H4" t="n">
-        <v>51.09175193297154</v>
+        <v>51.09175193297165</v>
       </c>
       <c r="I4" t="n">
-        <v>51.09175193297154</v>
+        <v>51.09175193297165</v>
       </c>
       <c r="J4" t="n">
-        <v>51.09175193297154</v>
+        <v>51.09175193297165</v>
       </c>
       <c r="K4" t="n">
-        <v>101.0304570771861</v>
+        <v>101.0304570771865</v>
       </c>
       <c r="L4" t="n">
-        <v>220.4612409703271</v>
+        <v>220.4612409703277</v>
       </c>
       <c r="M4" t="n">
-        <v>356.7733802486098</v>
+        <v>356.7733802486108</v>
       </c>
       <c r="N4" t="n">
-        <v>495.27893794932</v>
+        <v>495.2789379493213</v>
       </c>
       <c r="O4" t="n">
-        <v>607.1949427455642</v>
+        <v>607.1949427455658</v>
       </c>
       <c r="P4" t="n">
-        <v>679.4377367071405</v>
+        <v>679.4377367071424</v>
       </c>
       <c r="Q4" t="n">
-        <v>679.4377367071405</v>
+        <v>679.4377367071424</v>
       </c>
       <c r="R4" t="n">
-        <v>679.4377367071405</v>
+        <v>679.4377367071424</v>
       </c>
       <c r="S4" t="n">
-        <v>679.4377367071405</v>
+        <v>679.4377367071424</v>
       </c>
       <c r="T4" t="n">
-        <v>679.4377367071405</v>
+        <v>451.8907727344027</v>
       </c>
       <c r="U4" t="n">
-        <v>679.4377367071405</v>
+        <v>451.8907727344027</v>
       </c>
       <c r="V4" t="n">
-        <v>679.4377367071405</v>
+        <v>451.8907727344027</v>
       </c>
       <c r="W4" t="n">
-        <v>569.9140640712305</v>
+        <v>451.8907727344027</v>
       </c>
       <c r="X4" t="n">
-        <v>569.9140640712305</v>
+        <v>451.8907727344027</v>
       </c>
       <c r="Y4" t="n">
-        <v>349.1214849277004</v>
+        <v>349.1214849277005</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1817.858670903615</v>
+        <v>1817.858670903613</v>
       </c>
       <c r="C5" t="n">
-        <v>1448.896153963203</v>
+        <v>1448.896153963201</v>
       </c>
       <c r="D5" t="n">
-        <v>1448.896153963203</v>
+        <v>1448.896153963201</v>
       </c>
       <c r="E5" t="n">
-        <v>1063.107901364959</v>
+        <v>1063.107901364957</v>
       </c>
       <c r="F5" t="n">
-        <v>652.1219965753514</v>
+        <v>652.1219965753492</v>
       </c>
       <c r="G5" t="n">
-        <v>235.0342148117789</v>
+        <v>235.0342148117766</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>170.9397571678923</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="J5" t="n">
-        <v>72.4810365613864</v>
+        <v>72.48103656138636</v>
       </c>
       <c r="K5" t="n">
-        <v>155.0441911359788</v>
+        <v>475.9481495814318</v>
       </c>
       <c r="L5" t="n">
-        <v>610.4341993187981</v>
+        <v>1028.761407827631</v>
       </c>
       <c r="M5" t="n">
-        <v>1242.15201030211</v>
+        <v>1215.460820653039</v>
       </c>
       <c r="N5" t="n">
-        <v>1869.459678361956</v>
+        <v>1409.795033545021</v>
       </c>
       <c r="O5" t="n">
-        <v>2416.620883129034</v>
+        <v>1887.848321285958</v>
       </c>
       <c r="P5" t="n">
-        <v>2527.35520837856</v>
+        <v>2317.163367625252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400153</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400153</v>
       </c>
       <c r="S5" t="n">
-        <v>2406.124290896983</v>
+        <v>2406.124290896981</v>
       </c>
       <c r="T5" t="n">
-        <v>2191.324429164695</v>
+        <v>2191.324429164692</v>
       </c>
       <c r="U5" t="n">
-        <v>2191.324429164695</v>
+        <v>2191.324429164692</v>
       </c>
       <c r="V5" t="n">
-        <v>2191.324429164695</v>
+        <v>2191.324429164692</v>
       </c>
       <c r="W5" t="n">
-        <v>2191.324429164695</v>
+        <v>2191.324429164692</v>
       </c>
       <c r="X5" t="n">
-        <v>1817.858670903615</v>
+        <v>1817.858670903613</v>
       </c>
       <c r="Y5" t="n">
-        <v>1817.858670903615</v>
+        <v>1817.858670903613</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>918.7636139849254</v>
+        <v>893.4159553857294</v>
       </c>
       <c r="C6" t="n">
-        <v>744.3105847037984</v>
+        <v>718.9629261046024</v>
       </c>
       <c r="D6" t="n">
-        <v>595.3761750425472</v>
+        <v>570.0285164433511</v>
       </c>
       <c r="E6" t="n">
-        <v>436.1387200370916</v>
+        <v>410.7910614378956</v>
       </c>
       <c r="F6" t="n">
-        <v>289.6041620639766</v>
+        <v>264.2565034647806</v>
       </c>
       <c r="G6" t="n">
-        <v>152.1627644231985</v>
+        <v>126.8151058240026</v>
       </c>
       <c r="H6" t="n">
-        <v>51.24678656800311</v>
+        <v>97.15164357768657</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="J6" t="n">
-        <v>169.9060384248988</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="K6" t="n">
-        <v>499.3344427307086</v>
+        <v>118.8546062313601</v>
       </c>
       <c r="L6" t="n">
-        <v>636.5640407464026</v>
+        <v>623.2161460974787</v>
       </c>
       <c r="M6" t="n">
-        <v>1270.743024525441</v>
+        <v>1257.395129876517</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.14579119009</v>
+        <v>1881.476750918154</v>
       </c>
       <c r="O6" t="n">
-        <v>1907.658103858851</v>
+        <v>2430.912759670877</v>
       </c>
       <c r="P6" t="n">
-        <v>2331.625872339688</v>
+        <v>2539.602387198176</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400153</v>
       </c>
       <c r="R6" t="n">
-        <v>2541.227428802342</v>
+        <v>2541.22742880234</v>
       </c>
       <c r="S6" t="n">
-        <v>2417.108298264171</v>
+        <v>2391.760639664975</v>
       </c>
       <c r="T6" t="n">
-        <v>2220.119002424259</v>
+        <v>2194.771343825063</v>
       </c>
       <c r="U6" t="n">
-        <v>1991.980214935424</v>
+        <v>1966.632556336228</v>
       </c>
       <c r="V6" t="n">
-        <v>1756.828106703682</v>
+        <v>1731.480448104486</v>
       </c>
       <c r="W6" t="n">
-        <v>1502.59074997548</v>
+        <v>1477.243091376284</v>
       </c>
       <c r="X6" t="n">
-        <v>1294.739249769947</v>
+        <v>1269.391591170751</v>
       </c>
       <c r="Y6" t="n">
-        <v>1086.978951004993</v>
+        <v>1061.631292405797</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>665.1026499885492</v>
+        <v>648.740424053578</v>
       </c>
       <c r="C7" t="n">
-        <v>496.1664670606423</v>
+        <v>479.8042411256711</v>
       </c>
       <c r="D7" t="n">
-        <v>346.0498276483066</v>
+        <v>329.6876017133353</v>
       </c>
       <c r="E7" t="n">
-        <v>198.1367340659135</v>
+        <v>181.7745081309422</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="J7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="K7" t="n">
         <v>152.2947161636129</v>
@@ -4749,28 +4749,28 @@
         <v>1051.181468027348</v>
       </c>
       <c r="R7" t="n">
-        <v>920.7035067467505</v>
+        <v>1051.181468027348</v>
       </c>
       <c r="S7" t="n">
-        <v>846.7511148187889</v>
+        <v>1051.181468027348</v>
       </c>
       <c r="T7" t="n">
-        <v>846.7511148187889</v>
+        <v>1051.181468027348</v>
       </c>
       <c r="U7" t="n">
-        <v>846.7511148187889</v>
+        <v>1051.181468027348</v>
       </c>
       <c r="V7" t="n">
-        <v>846.7511148187889</v>
+        <v>1051.181468027348</v>
       </c>
       <c r="W7" t="n">
-        <v>846.7511148187889</v>
+        <v>1051.181468027348</v>
       </c>
       <c r="X7" t="n">
-        <v>846.7511148187889</v>
+        <v>1051.181468027348</v>
       </c>
       <c r="Y7" t="n">
-        <v>846.7511148187889</v>
+        <v>830.3888888838177</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1182.87310169792</v>
+        <v>1412.134398099142</v>
       </c>
       <c r="C8" t="n">
-        <v>813.9105847575083</v>
+        <v>1043.17188115873</v>
       </c>
       <c r="D8" t="n">
-        <v>455.6448861507579</v>
+        <v>684.9061825519796</v>
       </c>
       <c r="E8" t="n">
-        <v>69.85663355251364</v>
+        <v>684.9061825519796</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>677.9606818027761</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816079</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872924</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2333.078031998934</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2333.078031998934</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2333.078031998934</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W8" t="n">
-        <v>2333.078031998934</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X8" t="n">
-        <v>1959.612273737853</v>
+        <v>2188.873570139075</v>
       </c>
       <c r="Y8" t="n">
-        <v>1569.472941762042</v>
+        <v>1798.734238163263</v>
       </c>
     </row>
     <row r="9">
@@ -4874,37 +4874,37 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H9" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>590.2049751143501</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L9" t="n">
-        <v>884.9085321458217</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M9" t="n">
-        <v>1248.170551105042</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N9" t="n">
-        <v>1635.455679701987</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O9" t="n">
-        <v>1967.526114878149</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710446</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>517.189556406156</v>
+        <v>461.9138669598622</v>
       </c>
       <c r="C10" t="n">
-        <v>348.2533734782492</v>
+        <v>292.9776840319553</v>
       </c>
       <c r="D10" t="n">
-        <v>198.1367340659135</v>
+        <v>142.8610446196195</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1367340659135</v>
+        <v>142.8610446196195</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800311</v>
+        <v>142.8610446196195</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,37 +5029,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5074,10 +5074,10 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
@@ -5117,25 +5117,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>801.6918836311994</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>632.7557007032925</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>482.6390612909568</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>334.7259677085636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>187.8360202106533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5199,52 +5199,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>983.3403484614391</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192608</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111694</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468474</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>577.3880777468474</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1174.7665653734</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N15" t="n">
-        <v>1802.364528928007</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O15" t="n">
-        <v>2354.274259167294</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5427,58 +5427,58 @@
         <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235166</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258107</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602305</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396418</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359457</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X16" t="n">
-        <v>1211.329899359457</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y16" t="n">
         <v>1138.603793935964</v>
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,61 +5503,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192608</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075814</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852259</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468474</v>
+        <v>352.5519571452619</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403282</v>
+        <v>352.5519571452619</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>949.9304447718135</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5746,58 +5746,58 @@
         <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068013</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852259</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398597</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492582</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474787</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466577</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123006</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852892</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591812</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866616</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273915</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J21" t="n">
-        <v>245.230692780394</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516147</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167374</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793926</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348534</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400726</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C22" t="n">
-        <v>513.8536007400726</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282754</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458823</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797194</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797194</v>
+        <v>202.3036411041575</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797194</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487569</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.46108051051</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.28419561186</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138424</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703123</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5977,22 +5977,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332386</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6016,13 +6016,13 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6141,19 +6141,19 @@
         <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6208,37 +6208,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6247,31 +6247,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,37 +6360,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6420,16 +6420,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6451,40 +6451,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111731</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6542,7 +6542,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K30" t="n">
         <v>577.3880777468471</v>
@@ -6551,13 +6551,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>741.8431516380886</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>572.9069687101817</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>572.9069687101817</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>424.9938751277886</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>424.9938751277886</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6624,10 +6624,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6663,10 +6663,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>923.4916164683283</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,58 +6688,58 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X32" t="n">
         <v>3094.515198591809</v>
@@ -6773,22 +6773,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245714</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>776.17510664033</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N33" t="n">
         <v>2001.151557821488</v>
@@ -6837,34 +6837,34 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,61 +6925,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192586</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111713</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7004,34 +7004,34 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G36" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.388077746847</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,37 +7071,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7153,13 +7153,13 @@
         <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7168,31 +7168,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7201,10 +7201,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466572</v>
@@ -7247,28 +7247,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>980.1499206998684</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7353,31 +7353,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138365</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703064</v>
       </c>
     </row>
     <row r="41">
@@ -7405,31 +7405,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7438,22 +7438,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7484,13 +7484,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K42" t="n">
         <v>577.3880777468471</v>
@@ -7499,10 +7499,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7554,28 +7554,28 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7636,61 +7636,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362685</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797184</v>
+        <v>93.8166630479718</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192585</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111706</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355934</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068007</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694704</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852252</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.83315239859</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492574</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.25260147478</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.81249946657</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612122999</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852884</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591805</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7721,25 +7721,25 @@
         <v>178.4809954028056</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797183</v>
+        <v>93.8166630479718</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797183</v>
+        <v>93.8166630479718</v>
       </c>
       <c r="J45" t="n">
         <v>243.4633055756265</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>577.388077746847</v>
       </c>
       <c r="L45" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>983.3556038098237</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C46" t="n">
-        <v>814.4194208819168</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D46" t="n">
-        <v>664.3027814695811</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408905</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797183</v>
+        <v>93.8166630479718</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K46" t="n">
         <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7836,22 +7836,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.96308358026</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U46" t="n">
-        <v>2157.887856924458</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V46" t="n">
-        <v>1903.203368718571</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W46" t="n">
-        <v>1613.786198681611</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X46" t="n">
-        <v>1385.796647783593</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y46" t="n">
-        <v>1165.004068640063</v>
+        <v>945.402603663004</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>56.30844904164178</v>
+        <v>56.30844904164155</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>175.5203270758753</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8072,7 +8072,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>304.917409340024</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8218,25 +8218,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>319.2538912541072</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>310.9942044686637</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8294,28 +8294,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>459.2743913378118</v>
+        <v>459.2743913378112</v>
       </c>
       <c r="N6" t="n">
-        <v>281.5616414262471</v>
+        <v>429.7221003929019</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>168.7434581780647</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8546,7 +8546,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>54.95314511566551</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>-1.220359458563496e-12</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>-2.138442587197961e-12</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>3.240074875066057e-12</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-12</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>-1.364242052659392e-12</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -11080,7 +11080,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11308,7 +11308,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>-7.918655094441759e-13</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>72.44497470121425</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012163</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>146.5858089828365</v>
+        <v>191.2691783702305</v>
       </c>
     </row>
     <row r="17">
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012163</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>72.1196935303844</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24129,10 +24129,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>24.63391537253318</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>114.1584408891657</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>59.21924749803978</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>138.4949402405078</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25314,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>55.21102825632966</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>146.8157004125007</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>63.36835372228749</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>114.1584408891655</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>25.74504007796165</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>876968.5453156305</v>
+        <v>876968.5453156306</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>842878.8167049137</v>
+        <v>842878.8167049136</v>
       </c>
     </row>
     <row r="4">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>773498.6533206414</v>
+        <v>773498.6533206413</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>773498.6533206413</v>
+        <v>773498.6533206416</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>773498.6533206413</v>
+        <v>773498.6533206414</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>773498.6533206414</v>
+        <v>773498.6533206413</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>773498.6533206413</v>
+        <v>773498.6533206414</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>773498.6533206413</v>
+        <v>773498.6533206414</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>773498.6533206415</v>
+        <v>773498.6533206414</v>
       </c>
     </row>
   </sheetData>
@@ -26316,37 +26316,37 @@
         <v>656833.4158914266</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914264</v>
+        <v>656833.4158914267</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914271</v>
+        <v>656833.4158914268</v>
       </c>
       <c r="E2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520047</v>
       </c>
       <c r="F2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="G2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="H2" t="n">
         <v>645717.2797520052</v>
       </c>
-      <c r="G2" t="n">
-        <v>645717.2797520051</v>
-      </c>
-      <c r="H2" t="n">
-        <v>645717.2797520049</v>
-      </c>
       <c r="I2" t="n">
-        <v>645717.2797520047</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="J2" t="n">
         <v>645717.2797520049</v>
       </c>
       <c r="K2" t="n">
-        <v>645717.2797520052</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="L2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="M2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520047</v>
       </c>
       <c r="N2" t="n">
         <v>645717.2797520049</v>
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548460.0746161967</v>
+        <v>548460.0746161983</v>
       </c>
       <c r="C3" t="n">
-        <v>225009.9816299269</v>
+        <v>225009.9816299252</v>
       </c>
       <c r="D3" t="n">
-        <v>291685.0095230265</v>
+        <v>291685.0095230266</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245461</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
-        <v>3.594527697714511e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167098.1292843801</v>
+        <v>167098.1292843804</v>
       </c>
       <c r="K3" t="n">
-        <v>498.761924360065</v>
+        <v>498.7619243595968</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>5.148837678054155e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>247452.3619198064</v>
+        <v>247452.361919806</v>
       </c>
       <c r="C4" t="n">
         <v>198312.6346601523</v>
@@ -26429,37 +26429,37 @@
         <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719614</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.368461719613</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719538</v>
+        <v>7507.368461719738</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719721</v>
       </c>
       <c r="J4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719691</v>
       </c>
       <c r="K4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719705</v>
       </c>
       <c r="L4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.36846171977</v>
       </c>
       <c r="M4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719638</v>
       </c>
       <c r="N4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="O4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719754</v>
       </c>
       <c r="P4" t="n">
-        <v>7507.368461719749</v>
+        <v>7507.368461719807</v>
       </c>
     </row>
     <row r="5">
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>80023.31371946028</v>
+        <v>80023.31371946039</v>
       </c>
       <c r="C5" t="n">
-        <v>85512.93677905218</v>
+        <v>85512.93677905214</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26487,7 +26487,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="I5" t="n">
         <v>101122.5298239071</v>
@@ -26511,7 +26511,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.529823907</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-219102.3343640367</v>
+        <v>-219102.3343640381</v>
       </c>
       <c r="C6" t="n">
-        <v>147997.8628222951</v>
+        <v>147997.8628222971</v>
       </c>
       <c r="D6" t="n">
-        <v>139096.7703818115</v>
+        <v>139096.7703818112</v>
       </c>
       <c r="E6" t="n">
-        <v>29254.5605874751</v>
+        <v>29567.20191639622</v>
       </c>
       <c r="F6" t="n">
-        <v>536740.0022120212</v>
+        <v>537052.6435409428</v>
       </c>
       <c r="G6" t="n">
-        <v>536740.0022120214</v>
+        <v>537052.6435409426</v>
       </c>
       <c r="H6" t="n">
-        <v>536740.002212021</v>
+        <v>537052.6435409426</v>
       </c>
       <c r="I6" t="n">
-        <v>536740.0022120216</v>
+        <v>537052.6435409426</v>
       </c>
       <c r="J6" t="n">
-        <v>369641.8729276411</v>
+        <v>369954.5142565619</v>
       </c>
       <c r="K6" t="n">
-        <v>536241.2402876614</v>
+        <v>536553.8816165829</v>
       </c>
       <c r="L6" t="n">
-        <v>536740.0022120214</v>
+        <v>537052.6435409423</v>
       </c>
       <c r="M6" t="n">
-        <v>404132.7084830945</v>
+        <v>404445.3498120155</v>
       </c>
       <c r="N6" t="n">
-        <v>536740.0022120212</v>
+        <v>537052.6435409425</v>
       </c>
       <c r="O6" t="n">
-        <v>536740.0022120212</v>
+        <v>537052.6435409425</v>
       </c>
       <c r="P6" t="n">
-        <v>536740.0022120212</v>
+        <v>537052.6435409423</v>
       </c>
     </row>
   </sheetData>
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>2.42543339656766e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26727,7 +26727,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>347.063405981739</v>
+        <v>347.0634059817401</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>638.6468991621442</v>
+        <v>638.6468991621457</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000383</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099649</v>
@@ -26831,7 +26831,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099647</v>
       </c>
     </row>
   </sheetData>
@@ -26949,7 +26949,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>347.063405981739</v>
+        <v>347.0634059817401</v>
       </c>
       <c r="C3" t="n">
-        <v>246.4126943563261</v>
+        <v>246.4126943563249</v>
       </c>
       <c r="D3" t="n">
         <v>340.588791779474</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241349</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>638.6468991621442</v>
+        <v>638.6468991621457</v>
       </c>
       <c r="C4" t="n">
-        <v>1.93793293789463</v>
+        <v>1.937932937892583</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.6468991621442</v>
+        <v>638.6468991621457</v>
       </c>
       <c r="K4" t="n">
-        <v>1.93793293789463</v>
+        <v>1.937932937892811</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.6468991621442</v>
+        <v>638.6468991621457</v>
       </c>
       <c r="K4" t="n">
-        <v>1.93793293789463</v>
+        <v>1.937932937892583</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>303.4075523847573</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>325.1859052051722</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>113.3501043015601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,13 +27432,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.9882312337391</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27466,7 +27466,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>29.37913216441922</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27478,7 +27478,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>63.69429571031451</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>53.80849853870431</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>146.8819264134443</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27560,7 +27560,7 @@
         <v>136.6293971077895</v>
       </c>
       <c r="J4" t="n">
-        <v>49.11144063601731</v>
+        <v>49.11144063601716</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,16 +27581,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>33.7554689484518</v>
+        <v>33.75546894845163</v>
       </c>
       <c r="R4" t="n">
-        <v>149.1528076724862</v>
+        <v>149.1528076724861</v>
       </c>
       <c r="S4" t="n">
-        <v>213.1097037866937</v>
+        <v>213.1097037866936</v>
       </c>
       <c r="T4" t="n">
-        <v>225.2714943330124</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.284891972296</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>178.0945624270401</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>116.8430584234597</v>
       </c>
     </row>
     <row r="5">
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>133.0913301138775</v>
+        <v>251.58737100777</v>
       </c>
       <c r="I5" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27712,10 +27712,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>70.53999045279062</v>
       </c>
       <c r="I6" t="n">
-        <v>45.44580843958667</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,7 +27745,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>25.09418201320203</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27785,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>16.19860367562151</v>
       </c>
       <c r="G7" t="n">
         <v>166.9207765545704</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
-        <v>132.1530138914367</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
         <v>223.3729047207587</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>157.8294117254046</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>103.1417169418187</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>54.72293255183091</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28022,10 +28022,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>75.6084845737039</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551289</v>
@@ -28800,7 +28800,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-2.479503100362809e-12</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29097,7 +29097,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -29292,7 +29292,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>5.331078229440675e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29814,7 +29814,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -30234,7 +30234,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30425,7 +30425,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>-2.241631118489267e-12</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -30528,7 +30528,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="42">
@@ -30696,25 +30696,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>1.028473857802275e-12</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>4.035882739117369e-12</v>
       </c>
     </row>
     <row r="45">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.395229772790909</v>
+        <v>1.395229772790914</v>
       </c>
       <c r="H2" t="n">
-        <v>14.28889691059491</v>
+        <v>14.28889691059495</v>
       </c>
       <c r="I2" t="n">
-        <v>53.78959581552159</v>
+        <v>53.78959581552176</v>
       </c>
       <c r="J2" t="n">
-        <v>118.4183829284126</v>
+        <v>118.4183829284129</v>
       </c>
       <c r="K2" t="n">
-        <v>177.4784592106518</v>
+        <v>177.4784592106524</v>
       </c>
       <c r="L2" t="n">
-        <v>220.1777223697016</v>
+        <v>220.1777223697023</v>
       </c>
       <c r="M2" t="n">
-        <v>244.990139841572</v>
+        <v>244.9901398415728</v>
       </c>
       <c r="N2" t="n">
-        <v>248.9543364335142</v>
+        <v>248.954336433515</v>
       </c>
       <c r="O2" t="n">
-        <v>235.0805203803245</v>
+        <v>235.0805203803253</v>
       </c>
       <c r="P2" t="n">
-        <v>200.6357853645489</v>
+        <v>200.6357853645496</v>
       </c>
       <c r="Q2" t="n">
-        <v>150.6691191264744</v>
+        <v>150.6691191264749</v>
       </c>
       <c r="R2" t="n">
-        <v>87.64310221507704</v>
+        <v>87.64310221507733</v>
       </c>
       <c r="S2" t="n">
-        <v>31.79379844747288</v>
+        <v>31.79379844747298</v>
       </c>
       <c r="T2" t="n">
-        <v>6.107618330392209</v>
+        <v>6.107618330392229</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1116183818232727</v>
+        <v>0.1116183818232731</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7465137411682687</v>
+        <v>0.7465137411682712</v>
       </c>
       <c r="H3" t="n">
-        <v>7.209751131809334</v>
+        <v>7.209751131809357</v>
       </c>
       <c r="I3" t="n">
-        <v>25.70233714110049</v>
+        <v>25.70233714110057</v>
       </c>
       <c r="J3" t="n">
-        <v>70.52917762502491</v>
+        <v>70.52917762502514</v>
       </c>
       <c r="K3" t="n">
-        <v>120.5455982832989</v>
+        <v>120.5455982832993</v>
       </c>
       <c r="L3" t="n">
-        <v>162.088433142698</v>
+        <v>162.0884331426986</v>
       </c>
       <c r="M3" t="n">
-        <v>189.1495562600477</v>
+        <v>189.1495562600483</v>
       </c>
       <c r="N3" t="n">
-        <v>194.1557821821806</v>
+        <v>194.1557821821812</v>
       </c>
       <c r="O3" t="n">
-        <v>177.6146092857679</v>
+        <v>177.6146092857685</v>
       </c>
       <c r="P3" t="n">
-        <v>142.5513827323863</v>
+        <v>142.5513827323868</v>
       </c>
       <c r="Q3" t="n">
-        <v>95.29182422351445</v>
+        <v>95.29182422351477</v>
       </c>
       <c r="R3" t="n">
-        <v>46.34933561393867</v>
+        <v>46.34933561393882</v>
       </c>
       <c r="S3" t="n">
-        <v>13.86616532389305</v>
+        <v>13.8661653238931</v>
       </c>
       <c r="T3" t="n">
-        <v>3.00897424620017</v>
+        <v>3.00897424620018</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04911274612949139</v>
+        <v>0.04911274612949155</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6258520435736276</v>
+        <v>0.6258520435736297</v>
       </c>
       <c r="H4" t="n">
-        <v>5.564393623772802</v>
+        <v>5.56439362377282</v>
       </c>
       <c r="I4" t="n">
-        <v>18.82107781946873</v>
+        <v>18.8210778194688</v>
       </c>
       <c r="J4" t="n">
-        <v>44.24773948065547</v>
+        <v>44.24773948065561</v>
       </c>
       <c r="K4" t="n">
-        <v>72.71262833519053</v>
+        <v>72.71262833519077</v>
       </c>
       <c r="L4" t="n">
-        <v>93.04713018730098</v>
+        <v>93.04713018730128</v>
       </c>
       <c r="M4" t="n">
-        <v>98.10515261218235</v>
+        <v>98.10515261218268</v>
       </c>
       <c r="N4" t="n">
-        <v>95.77243135886255</v>
+        <v>95.77243135886286</v>
       </c>
       <c r="O4" t="n">
-        <v>88.46134157711604</v>
+        <v>88.46134157711634</v>
       </c>
       <c r="P4" t="n">
-        <v>75.69395988821398</v>
+        <v>75.69395988821424</v>
       </c>
       <c r="Q4" t="n">
-        <v>52.40657430324259</v>
+        <v>52.40657430324276</v>
       </c>
       <c r="R4" t="n">
-        <v>28.14058370468328</v>
+        <v>28.14058370468338</v>
       </c>
       <c r="S4" t="n">
-        <v>10.90689425027858</v>
+        <v>10.90689425027862</v>
       </c>
       <c r="T4" t="n">
-        <v>2.674095095269136</v>
+        <v>2.674095095269144</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03413738419492518</v>
+        <v>0.03413738419492529</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>543.0832917018711</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135343</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162565</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420756</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422588</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437246</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P15" t="n">
-        <v>334.769386094614</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135343</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162565</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420756</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422588</v>
+        <v>248.0319961154048</v>
       </c>
       <c r="L18" t="n">
-        <v>339.3493584601578</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437246</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135343</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162565</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.307619600775</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420756</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422588</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473075</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643557995</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>156.3072281639554</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,37 +32700,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32739,10 +32739,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,25 +32785,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,10 +32815,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32864,28 +32864,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N25" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32894,7 +32894,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32937,37 +32937,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32976,10 +32976,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33022,25 +33022,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,10 +33052,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33101,28 +33101,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33131,7 +33131,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33174,37 +33174,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33213,10 +33213,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33262,25 +33262,25 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33289,10 +33289,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33338,28 +33338,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33368,7 +33368,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33411,37 +33411,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33450,10 +33450,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33496,25 +33496,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>326.7634969305202</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N33" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,10 +33526,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33575,28 +33575,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33605,7 +33605,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33648,37 +33648,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33687,10 +33687,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33733,28 +33733,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>652.0478969157704</v>
       </c>
       <c r="N36" t="n">
-        <v>463.9598929192557</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33763,10 +33763,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33812,28 +33812,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33842,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33885,37 +33885,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33924,10 +33924,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33970,28 +33970,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>545.3845241768654</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34000,10 +34000,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34049,28 +34049,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34079,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34122,37 +34122,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34161,10 +34161,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34210,22 +34210,22 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,10 +34237,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34286,28 +34286,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34316,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34359,37 +34359,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34398,10 +34398,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34447,22 +34447,22 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,10 +34474,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34523,28 +34523,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34553,7 +34553,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>106.4690935738</v>
+        <v>106.4690935738004</v>
       </c>
       <c r="K2" t="n">
-        <v>281.5340207368359</v>
+        <v>281.5340207368366</v>
       </c>
       <c r="L2" t="n">
-        <v>402.0725219501649</v>
+        <v>402.0725219501655</v>
       </c>
       <c r="M2" t="n">
-        <v>464.1574401071317</v>
+        <v>464.1574401071325</v>
       </c>
       <c r="N2" t="n">
-        <v>456.8881972489074</v>
+        <v>456.8881972489082</v>
       </c>
       <c r="O2" t="n">
-        <v>385.7824902213831</v>
+        <v>385.7824902213839</v>
       </c>
       <c r="P2" t="n">
-        <v>291.201497780762</v>
+        <v>291.2014977807627</v>
       </c>
       <c r="Q2" t="n">
-        <v>140.6784199119296</v>
+        <v>140.6784199119301</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>247.1693963215185</v>
+        <v>158.2244863848156</v>
       </c>
       <c r="L3" t="n">
-        <v>394.374398666283</v>
+        <v>394.3743986662836</v>
       </c>
       <c r="M3" t="n">
-        <v>512.7205860880293</v>
+        <v>512.7205860880299</v>
       </c>
       <c r="N3" t="n">
-        <v>542.1564444424008</v>
+        <v>542.1564444424014</v>
       </c>
       <c r="O3" t="n">
-        <v>339.9357741813474</v>
+        <v>428.8806841180535</v>
       </c>
       <c r="P3" t="n">
-        <v>327.0397439579933</v>
+        <v>327.0397439579938</v>
       </c>
       <c r="Q3" t="n">
-        <v>165.387337873342</v>
+        <v>165.3873378733423</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>50.44313650930768</v>
+        <v>50.44313650930792</v>
       </c>
       <c r="L4" t="n">
-        <v>120.6371554476171</v>
+        <v>120.6371554476174</v>
       </c>
       <c r="M4" t="n">
-        <v>137.6890295740229</v>
+        <v>137.6890295740233</v>
       </c>
       <c r="N4" t="n">
-        <v>139.9046037380911</v>
+        <v>139.9046037380915</v>
       </c>
       <c r="O4" t="n">
-        <v>113.0464694911557</v>
+        <v>113.046469491156</v>
       </c>
       <c r="P4" t="n">
-        <v>72.97251915310747</v>
+        <v>72.97251915310773</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34938,25 +34938,25 @@
         <v>21.44873736705384</v>
       </c>
       <c r="K5" t="n">
-        <v>83.39712583292157</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L5" t="n">
-        <v>459.9899072553731</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M5" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N5" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O5" t="n">
-        <v>552.6880856233105</v>
+        <v>482.8821088292289</v>
       </c>
       <c r="P5" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q5" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L6" t="n">
-        <v>138.615755571408</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M6" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000383</v>
       </c>
       <c r="N6" t="n">
-        <v>482.2250168329791</v>
+        <v>630.3854757996339</v>
       </c>
       <c r="O6" t="n">
-        <v>161.1235481502633</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P6" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q6" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>355.3309544215495</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378501</v>
@@ -35266,7 +35266,7 @@
         <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>390.3778271117885</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235322</v>
@@ -35275,7 +35275,7 @@
         <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396398</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367773</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243165</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678998</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238456</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992802</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P15" t="n">
-        <v>200.7949786802838</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010453</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066251</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396422</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367773</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243165</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902381</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678998</v>
+        <v>110.1905571410458</v>
       </c>
       <c r="L18" t="n">
-        <v>200.7949786802836</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238456</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992802</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010453</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066251</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396422</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367773</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243165</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902436</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774958</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678998</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674334</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238456</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113551</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>22.33282074962517</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010453</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066251</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,31 +36354,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36524,19 +36524,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36761,19 +36761,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,31 +36828,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396436</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36910,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36998,19 +36998,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,31 +37065,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561612</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N33" t="n">
-        <v>332.6181808359224</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37235,19 +37235,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.866084390239</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,28 +37381,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>509.913862993752</v>
       </c>
       <c r="N36" t="n">
-        <v>332.6181808359224</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37472,19 +37472,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37618,28 +37618,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>406.8301443969912</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37709,19 +37709,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,31 +37776,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924738</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37858,22 +37858,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37946,19 +37946,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,31 +38013,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193496</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38095,22 +38095,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38183,19 +38183,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
